--- a/output/Kenya_aggregated.xlsx
+++ b/output/Kenya_aggregated.xlsx
@@ -20,154 +20,154 @@
     <t xml:space="preserve">amountUSD</t>
   </si>
   <si>
+    <t xml:space="preserve">United States of America, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Charity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germany, Government of</t>
   </si>
   <si>
+    <t xml:space="preserve">New Zealand, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Government of</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denmark, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada, Government of</t>
+    <t xml:space="preserve">Norway, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF National Committee/Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland, Government of</t>
   </si>
   <si>
     <t xml:space="preserve">Italy, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweden, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
   </si>
   <si>
     <t xml:space="preserve">European Commission Directorate General for Development</t>
   </si>
   <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway, Government of</t>
+    <t xml:space="preserve">European Commission</t>
   </si>
   <si>
     <t xml:space="preserve">Belgium, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">World Food Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private (individuals &amp; organizations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office for the Coordination of Humanitarian Affairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Fund for UNICEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar Charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF National Committee/Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">ACT Alliance / Church of Sweden</t>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>18190910</v>
+        <v>187603597</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>7758213</v>
+        <v>39415742</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>10987333</v>
+        <v>533522</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>533618</v>
+        <v>18190910</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>9015988</v>
+        <v>503597</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>400082</v>
+        <v>10987333</v>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>39415742</v>
+        <v>7758213</v>
       </c>
     </row>
     <row r="9">
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>10449127</v>
+        <v>2833729</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>16774818</v>
+        <v>9015988</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1238791</v>
+        <v>400082</v>
       </c>
     </row>
     <row r="12">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>2833729</v>
+        <v>1454955</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>140499</v>
+        <v>16774818</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>26770682</v>
+        <v>1238791</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>2975673</v>
+        <v>1621352</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>85358162</v>
+        <v>751367</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>9516908</v>
+        <v>70672</v>
       </c>
     </row>
     <row r="18">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>6246</v>
+        <v>654268</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>187603597</v>
+        <v>4159623</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>2088106</v>
+        <v>115898</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1454955</v>
+        <v>66225</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>503597</v>
+        <v>97102</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>18795515</v>
+        <v>2187626</v>
       </c>
     </row>
     <row r="24">
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1621352</v>
+        <v>429907</v>
       </c>
     </row>
     <row r="25">
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>136274</v>
+        <v>9516908</v>
       </c>
     </row>
     <row r="26">
@@ -707,7 +707,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>751367</v>
+        <v>18795515</v>
       </c>
     </row>
     <row r="27">
@@ -715,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>70672</v>
+        <v>17379</v>
       </c>
     </row>
     <row r="28">
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>654268</v>
+        <v>52965</v>
       </c>
     </row>
     <row r="29">
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>4159623</v>
+        <v>1492751</v>
       </c>
     </row>
     <row r="30">
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>115898</v>
+        <v>1849364</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>66225</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="32">
@@ -755,7 +755,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>97102</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="33">
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>2187626</v>
+        <v>113766</v>
       </c>
     </row>
     <row r="34">
@@ -771,7 +771,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>429907</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>559910</v>
+        <v>58097</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1119821</v>
+        <v>69181</v>
       </c>
     </row>
     <row r="37">
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>17379</v>
+        <v>26770682</v>
       </c>
     </row>
     <row r="38">
@@ -803,7 +803,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>52965</v>
+        <v>2975673</v>
       </c>
     </row>
     <row r="39">
@@ -811,7 +811,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>1492751</v>
+        <v>85358162</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>533522</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="41">
@@ -827,7 +827,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1849364</v>
+        <v>559910</v>
       </c>
     </row>
     <row r="42">
@@ -835,7 +835,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>9800</v>
+        <v>42706</v>
       </c>
     </row>
     <row r="43">
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>42706</v>
+        <v>1390966</v>
       </c>
     </row>
     <row r="44">
@@ -851,7 +851,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>1390966</v>
+        <v>2743558</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>5717</v>
+        <v>533618</v>
       </c>
     </row>
     <row r="46">
@@ -867,7 +867,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>113766</v>
+        <v>46836</v>
       </c>
     </row>
     <row r="47">
@@ -875,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>9800</v>
+        <v>1119821</v>
       </c>
     </row>
     <row r="48">
@@ -883,7 +883,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>58097</v>
+        <v>136274</v>
       </c>
     </row>
     <row r="49">
@@ -891,7 +891,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>2743558</v>
+        <v>10449127</v>
       </c>
     </row>
     <row r="50">
@@ -899,7 +899,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>46836</v>
+        <v>2088106</v>
       </c>
     </row>
     <row r="51">
@@ -907,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>69181</v>
+        <v>140499</v>
       </c>
     </row>
     <row r="52">
